--- a/data_raw/SMT_dict.xlsx
+++ b/data_raw/SMT_dict.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rk/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\packages\SMT\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9391008D-197E-7742-B751-70BE7C7BF5F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEF762F-7D8E-4B7D-BF6D-09724F8A90CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10160" yWindow="460" windowWidth="39420" windowHeight="24220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDT" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
   <si>
     <t>key</t>
   </si>
@@ -54,12 +43,6 @@
     <t>NO_AUDIO</t>
   </si>
   <si>
-    <t>ITEM_INSTRUCTION</t>
-  </si>
-  <si>
-    <t>ERR_NO_SELECTION</t>
-  </si>
-  <si>
     <t>THANKS</t>
   </si>
   <si>
@@ -210,71 +193,6 @@
     <t>Nun geht es mit dem Haupttest los, in dem deine Ergebnisse gespeichert werden. \\ Du bekommst keine Rückmeldung nach den einzelnen Aufgaben. Viel Erfolg!</t>
   </si>
   <si>
-    <t>In diesem Teil geht es um die Merkfähigkeit für Tonfolgen. 
-Es werden kurz hintereinander zwei Tonfolgen gespielt. Es soll festgestellt werden, welcher der drei Töne geändert wurde. Die Markierung soll dementsprechend gesetzt werden. Es muss immer eine Markierung gesetzt werden. Im Zweifel kann geraten werden.</t>
-  </si>
-  <si>
-    <t>The next part is a test of Tonal Memory. In each
-trial you will hear a short series of notes played
-twice. In the second playing, one note is changed.
-You are to decide which note is changed; the first,
-the second, the third, and so on. There is always some
-note in the second playing that is different from the
-corresponding note in the first playing. As you hear
-the notes in each set, count them silently to yourself,
-one, two, three, etc., so that you can identify the note
-that is changed. There are 30 sets of tones in this test. Answer every time; if you are not sure, guess.</t>
-  </si>
-  <si>
-    <t>In diesem Teil geht es um den Vergleich von Klangfarben. Es werden kurz hintereinander zwei Töne gespielt. 
-In diesem Aufgabenblock soll entschieden werden, ob der zweite Ton die gleiche oder eine veränderte Klangfarbe hat.  Die Markierung soll dementsprechend gesetzt werden. Es muss immer eine Markierung gesetzt werden. Im Zweifel kann geraten werden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The next part measures your sense of Timbre or
-tonal quality. You will hear two tones that are either
-the same or different in timbre. There are 50
-pairs of tones in this test. You are to decide whether
-the two tones have the same tonal quality or not. Answer every time; if you are not sure, guess. </t>
-  </si>
-  <si>
-    <t>In diesem Teil geht es um den Vergleich von Tonlängen. Es werden kurz hintereinander zwei Töne gespielt. 
-In diesem Aufgabenblock soll entschieden werden, ob der zweite Ton länger oder kürzer ist. Die Markierung soll dementsprechend gesetzt werden. Es muss immer eine Markierung gesetzt werden. Im Zweifel kann geraten werden.</t>
-  </si>
-  <si>
-    <t>The next part tests your sense of Time. You will hear two tones which are different in length. You are to decide whether the second tone is longer than the first. There is always a difference; if you are not sure, guess.
-There will be 50 pairs of tones in this test. Answer every time; if you are not sure, guess.</t>
-  </si>
-  <si>
-    <t>In diesem Teil geht es um den Vergleich von zwei Rhythmen. Es werden kurz hintereinander zwei Rhythmen gespielt. 
-In diesem Aufgabenblock soll entschieden werden, ob der zweite Rhythmus gleich bleibt oder verändert wird. Die Markierung soll dementsprechend gesetzt werden. Es muss immer eine Markierung gesetzt werden. Im Zweifel kann geraten werden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The next part is a measure of sense of Rhythm.
-You will hear two rhythmic patterns, one right after
-the other. The second is either the same as the first
-or different from it. There are only 30 pairs of patterns in
-this test. You are to decide whether the rhythm in
-each pair is the same or different. Answer every time; if you are not sure, guess. </t>
-  </si>
-  <si>
-    <t>In diesem Teil geht es um den Vergleich von Lautstärken. Es werden kurz hintereinander zwei Töne gespielt. 
-In diesem Aufgabenblock soll entschieden werden, ob der zweite Ton lauter oder leiser als der erste Ton ist. Die Markierung soll dementsprechend gesetzt werden. Es muss immer eine Markierung gesetzt werden. Im Zweifel kann geraten werden.</t>
-  </si>
-  <si>
-    <t>In diesem Teil geht es um den Vergleich von Tonhöhen. Es werden kurz hintereinander zwei Töne gespielt. 
-In diesem Aufgabenblock soll entschieden werden, ob der zweite Ton höher oder tiefer als der erste Ton ist. Die Markierung soll dementsprechend gesetzt werden. Es muss immer eine Markierung gesetzt werden. Im Zweifel kann geraten werden.</t>
-  </si>
-  <si>
-    <t>The first test measures your sense of Pitch. 
-You will hear two tones, one right after the other. You are to make a mark if the second tone is either higher or lower in pitch than the first. There are 50 pairs in this test. Answer every time; if you are not sure, guess.</t>
-  </si>
-  <si>
-    <t>The next part tests your sense of Loudness. 
-Youwill hear two tones which differ in loudness or
-strength. If the second is stronger or weaker. There are 50
-pairs in this test. Answer every time; if you are not sure, guess.</t>
-  </si>
-  <si>
     <t>TONAL MEMORY</t>
   </si>
   <si>
@@ -312,13 +230,50 @@
   </si>
   <si>
     <t>pitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The next part is a measure of sense of rhythm. You will hear two rhythmic patterns, one right after the other. The second is either the same as the first or different from it. There are only 30 pairs of patterns in
+this test. You are to decide whether the rhythm in each pair is the same or different. Answer every time; if you are not sure, guess. </t>
+  </si>
+  <si>
+    <t>The next part tests your sense of Time. You will hear two tones which are different in length. You are to decide whether the second tone is longer than the first. There is always a difference; if you are not sure, guess. There will be 50 pairs of tones in this test. Answer every time; if you are not sure, guess.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The next part measures your sense of Timbre or tonal quality. You will hear two tones that are either the same or different in timbre. There are 50 pairs of tones in this test. You are to decide whether the two tones have the same tonal quality or not. Answer every time; if you are not sure, guess. </t>
+  </si>
+  <si>
+    <t>The next part is a test of Tonal Memory. In each trial you will hear a short series of notes played twice. In the second playing, one note is changed. You are to decide which note is changed; the first, the second, the third, and so on. There is always some note in the second playing that is different from the corresponding note in the first playing. As you hear the notes in each set, count them silently to yourself, one, two, three, etc., so that you can identify the note that is changed. There are 30 sets of tones in this test. Answer every time; if you are not sure, guess.</t>
+  </si>
+  <si>
+    <t>In diesem Teil geht es um den Vergleich von Tonlängen. Es werden kurz hintereinander zwei Töne gespielt.  In diesem Aufgabenblock soll entschieden werden, ob der zweite Ton länger oder kürzer ist. Die Markierung soll dementsprechend gesetzt werden. Es  muss immer eine Markierung gesetzt werden. Im Zweifel kann geraten werden.</t>
+  </si>
+  <si>
+    <t>The next part tests your sense of Loudness. You will hear two tones which differ in loudness or strength. You are to decide if the second is stronger or weaker. There are 50 pairs in this test. Answer every time; if you are not sure, guess.</t>
+  </si>
+  <si>
+    <t>The first test measures your sense of Pitch. You will hear two tones, one right after the other. You are to make a mark if the second tone is either higher or lower in pitch than the first. There are 50 pairs in this test. Answer every time; if you are not sure, guess.</t>
+  </si>
+  <si>
+    <t>In diesem Teil geht es um den Vergleich von Tonhöhen. Es werden kurz hintereinander zwei Töne gespielt.  In diesem Aufgabenblock soll entschieden werden, ob der zweite Ton höher oder tiefer als der erste Ton ist. Die Markierung soll dementsprechend gesetzt werden. Es muss immer eine Markierung gesetzt werden. Im Zweifel kann geraten werden.</t>
+  </si>
+  <si>
+    <t>In diesem Teil geht es um den Vergleich von Lautstärken. Es werden kurz hintereinander zwei Töne gespielt. In diesem Aufgabenblock soll entschieden werden, ob der zweite Ton lauter oder leiser als der erste Ton ist. Die Markierung soll dementsprechend gesetzt werden. Es muss immer eine Markierung gesetzt werden. Im Zweifel kann geraten werden.</t>
+  </si>
+  <si>
+    <t>In diesem Teil geht es um den Vergleich von zwei Rhythmen. Es werden kurz hintereinander zwei Rhythmen gespielt.  In diesem Aufgabenblock soll entschieden werden, ob der zweite Rhythmus gleich bleibt oder verändert wird. Die Markierung soll dementsprechend gesetzt werden. Es muss immer eine Markierung gesetzt werden. Im Zweifel kann geraten werden.</t>
+  </si>
+  <si>
+    <t>In diesem Teil geht es um den Vergleich von Klangfarben. Es werden kurz hintereinander zwei Töne gespielt. In diesem Aufgabenblock soll entschieden werden, ob der zweite Ton die gleiche oder eine veränderte Klangfarbe hat.  Die Markierung soll dementsprechend gesetzt werden. Es muss immer eine Markierung gesetzt werden. Im Zweifel kann geraten werden.</t>
+  </si>
+  <si>
+    <t>In diesem Teil geht es um die Merkfähigkeit für Tonfolgen. Es werden kurz hintereinander zwei Tonfolgen gespielt. Es soll festgestellt werden, welcher der drei Töne geändert wurde. Die Markierung soll dementsprechend gesetzt werden. Es muss immer eine Markierung gesetzt werden. Im Zweifel kann geraten werden.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -384,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -395,7 +350,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -405,7 +359,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -462,7 +424,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -785,365 +747,353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="71.83203125" customWidth="1"/>
-    <col min="3" max="3" width="69.83203125" customWidth="1"/>
-    <col min="4" max="4" width="52.33203125" customWidth="1"/>
-    <col min="5" max="5" width="50.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="71.85546875" customWidth="1"/>
+    <col min="3" max="3" width="69.85546875" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" customWidth="1"/>
+    <col min="5" max="5" width="50.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15.75">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75">
+      <c r="A3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75">
+      <c r="A4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="C23" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="75">
+      <c r="A24" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="75">
+      <c r="A25" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" ht="75">
+      <c r="A26" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="75">
+      <c r="A27" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="107.1" customHeight="1">
+      <c r="A28" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" ht="174" customHeight="1">
+      <c r="A29" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="C29" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="107" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" ht="174" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data_raw/SMT_dict.xlsx
+++ b/data_raw/SMT_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\packages\SMT\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEF762F-7D8E-4B7D-BF6D-09724F8A90CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E564971F-E7C0-4544-9986-854486C55A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="166">
   <si>
     <t>key</t>
   </si>
@@ -67,9 +67,6 @@
     <t>COMPLETED</t>
   </si>
   <si>
-    <t>SCORE_TEMPLATE</t>
-  </si>
-  <si>
     <t>VALUE</t>
   </si>
   <si>
@@ -115,12 +112,6 @@
     <t>Continue</t>
   </si>
   <si>
-    <t>You answered {{num_correct}} out of {{num_question}} questions correctly.</t>
-  </si>
-  <si>
-    <t>Your score</t>
-  </si>
-  <si>
     <t>Score</t>
   </si>
   <si>
@@ -178,18 +169,6 @@
     <t>TIMBRE</t>
   </si>
   <si>
-    <t>TONAL_MEMORY</t>
-  </si>
-  <si>
-    <t>Du hast **{{accuracy}} %** der Aufgaben richtig beantwortet.</t>
-  </si>
-  <si>
-    <t>You answered **{{accuracy}} %**  of the tasks correctly.</t>
-  </si>
-  <si>
-    <t>Du hast {{num_correct}} von {{num_question}} Aufgaben richtig beantwortet.</t>
-  </si>
-  <si>
     <t>Nun geht es mit dem Haupttest los, in dem deine Ergebnisse gespeichert werden. \\ Du bekommst keine Rückmeldung nach den einzelnen Aufgaben. Viel Erfolg!</t>
   </si>
   <si>
@@ -232,10 +211,6 @@
     <t>pitch</t>
   </si>
   <si>
-    <t xml:space="preserve">The next part is a measure of sense of rhythm. You will hear two rhythmic patterns, one right after the other. The second is either the same as the first or different from it. There are only 30 pairs of patterns in
-this test. You are to decide whether the rhythm in each pair is the same or different. Answer every time; if you are not sure, guess. </t>
-  </si>
-  <si>
     <t>The next part tests your sense of Time. You will hear two tones which are different in length. You are to decide whether the second tone is longer than the first. There is always a difference; if you are not sure, guess. There will be 50 pairs of tones in this test. Answer every time; if you are not sure, guess.</t>
   </si>
   <si>
@@ -260,20 +235,296 @@
     <t>In diesem Teil geht es um den Vergleich von Lautstärken. Es werden kurz hintereinander zwei Töne gespielt. In diesem Aufgabenblock soll entschieden werden, ob der zweite Ton lauter oder leiser als der erste Ton ist. Die Markierung soll dementsprechend gesetzt werden. Es muss immer eine Markierung gesetzt werden. Im Zweifel kann geraten werden.</t>
   </si>
   <si>
-    <t>In diesem Teil geht es um den Vergleich von zwei Rhythmen. Es werden kurz hintereinander zwei Rhythmen gespielt.  In diesem Aufgabenblock soll entschieden werden, ob der zweite Rhythmus gleich bleibt oder verändert wird. Die Markierung soll dementsprechend gesetzt werden. Es muss immer eine Markierung gesetzt werden. Im Zweifel kann geraten werden.</t>
-  </si>
-  <si>
     <t>In diesem Teil geht es um den Vergleich von Klangfarben. Es werden kurz hintereinander zwei Töne gespielt. In diesem Aufgabenblock soll entschieden werden, ob der zweite Ton die gleiche oder eine veränderte Klangfarbe hat.  Die Markierung soll dementsprechend gesetzt werden. Es muss immer eine Markierung gesetzt werden. Im Zweifel kann geraten werden.</t>
   </si>
   <si>
     <t>In diesem Teil geht es um die Merkfähigkeit für Tonfolgen. Es werden kurz hintereinander zwei Tonfolgen gespielt. Es soll festgestellt werden, welcher der drei Töne geändert wurde. Die Markierung soll dementsprechend gesetzt werden. Es muss immer eine Markierung gesetzt werden. Im Zweifel kann geraten werden.</t>
+  </si>
+  <si>
+    <t>Frage {{num_question}} out of {{test_length}}.</t>
+  </si>
+  <si>
+    <t>PITCH_INTRO</t>
+  </si>
+  <si>
+    <t>LOUDNESS_INTRO</t>
+  </si>
+  <si>
+    <t>RHYTHM_INTRO</t>
+  </si>
+  <si>
+    <t>TIME_INTRO</t>
+  </si>
+  <si>
+    <t>TIMBRE_INTRO</t>
+  </si>
+  <si>
+    <t>TONAL_MEMORY_INTRO</t>
+  </si>
+  <si>
+    <t>PITCH_PROMPT</t>
+  </si>
+  <si>
+    <t>LOUDNESS_PROMPT</t>
+  </si>
+  <si>
+    <t>RHYTHM_PROMPT</t>
+  </si>
+  <si>
+    <t>TIME_PROMPT</t>
+  </si>
+  <si>
+    <t>TONAL_MEMORY_PROMPT</t>
+  </si>
+  <si>
+    <t>TIMBRE_PROMPT</t>
+  </si>
+  <si>
+    <t>Waren die beiden Rhythm gleich oder verschieden?</t>
+  </si>
+  <si>
+    <t>War die Klangfarbe der beiden Töne gleich oder verschieden?</t>
+  </si>
+  <si>
+    <t>Were the two rhythms the same or different?</t>
+  </si>
+  <si>
+    <t>Was the timbre of the two tones same or different?</t>
+  </si>
+  <si>
+    <t>SAME</t>
+  </si>
+  <si>
+    <t>DIFFERENT</t>
+  </si>
+  <si>
+    <t>Gleich</t>
+  </si>
+  <si>
+    <t>Same</t>
+  </si>
+  <si>
+    <t>Different</t>
+  </si>
+  <si>
+    <t>Verschieden</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>FIRST</t>
+  </si>
+  <si>
+    <t>SECOND</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>Erster</t>
+  </si>
+  <si>
+    <t>Zweiter</t>
+  </si>
+  <si>
+    <t>In diesem Teil geht es um den Vergleich von zwei Rhythmen. Es werden kurz hintereinander zwei Rhythmen gespielt.  In diesem Aufgabenblock soll entschieden werden, ob der zweite Rhythmus gleich bleibt oder verändert wird. Die Markierung soll ementsprechend gesetzt werden. Es muss immer eine Markierung gesetzt werden. Im Zweifel kann geraten werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The next part is a measure of sense of rhythm. You will hear two rhythmic patterns, one right after the other. The second is either the same as the first or different from it. There are only 30 pairs of patterns in this test. You are to decide whether the rhythm in each pair is the same or different. Answer every time; if you are not sure, guess. </t>
+  </si>
+  <si>
+    <t>War der zweite Ton höher oder tiefer?</t>
+  </si>
+  <si>
+    <t>Was the second tone higher or lower in pitch?</t>
+  </si>
+  <si>
+    <t>War der zweite Ton lauter oder leider?</t>
+  </si>
+  <si>
+    <t>Was the second tone stronger or weaker?</t>
+  </si>
+  <si>
+    <t>PITCH_CHOICE1</t>
+  </si>
+  <si>
+    <t>PITCH_CHOICE2</t>
+  </si>
+  <si>
+    <t>Höher</t>
+  </si>
+  <si>
+    <t>Tiefer</t>
+  </si>
+  <si>
+    <t>Higher</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>LOUDNESS_CHOICE1</t>
+  </si>
+  <si>
+    <t>LOUDNESS_CHOICE2</t>
+  </si>
+  <si>
+    <t>Lauter</t>
+  </si>
+  <si>
+    <t>Leiser</t>
+  </si>
+  <si>
+    <t>Stronger</t>
+  </si>
+  <si>
+    <t>Weaker</t>
+  </si>
+  <si>
+    <t>RHYTHM_CHOICE1</t>
+  </si>
+  <si>
+    <t>RHYTHM_CHOICE2</t>
+  </si>
+  <si>
+    <t>TIMBRE_CHOICE1</t>
+  </si>
+  <si>
+    <t>TIMBRE_CHOICE2</t>
+  </si>
+  <si>
+    <t>TIME_CHOICE1</t>
+  </si>
+  <si>
+    <t>TIME_CHOICE2</t>
+  </si>
+  <si>
+    <t>Longer</t>
+  </si>
+  <si>
+    <t>Shorter</t>
+  </si>
+  <si>
+    <t>Länger</t>
+  </si>
+  <si>
+    <t>Kürzer</t>
+  </si>
+  <si>
+    <t>Welcher Ton war verschieden?</t>
+  </si>
+  <si>
+    <t>Which tone was different?</t>
+  </si>
+  <si>
+    <t>TONAL_MEMORY_CHOICE1</t>
+  </si>
+  <si>
+    <t>TONAL_MEMORY_CHOICE2</t>
+  </si>
+  <si>
+    <t>TONAL_MEMORY_CHOICE3</t>
+  </si>
+  <si>
+    <t>TONAL_MEMORY_CHOICE4</t>
+  </si>
+  <si>
+    <t>TONAL_MEMORY_CHOICE5</t>
+  </si>
+  <si>
+    <t>War der zweite Ton länger oder kürzer?</t>
+  </si>
+  <si>
+    <t>PITCH_LABEL</t>
+  </si>
+  <si>
+    <t>LOUDNESS_LABEL</t>
+  </si>
+  <si>
+    <t>RHYTHM_LABEL</t>
+  </si>
+  <si>
+    <t>TIMBRE_LABEL</t>
+  </si>
+  <si>
+    <t>TIME_LABEL</t>
+  </si>
+  <si>
+    <t>TONAL_MEMORY_LABEL</t>
+  </si>
+  <si>
+    <t>Pitch</t>
+  </si>
+  <si>
+    <t>Loudness</t>
+  </si>
+  <si>
+    <t>Rhythm</t>
+  </si>
+  <si>
+    <t>Timbre</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Tonal Memory</t>
+  </si>
+  <si>
+    <t>Tongedächtnis</t>
+  </si>
+  <si>
+    <t>FEEDBACK_SHORT</t>
+  </si>
+  <si>
+    <t>Die Ergebnisse aus den einzelnen Aufgabengruppen.</t>
+  </si>
+  <si>
+    <t>Results for the single task groups.</t>
+  </si>
+  <si>
+    <t>Tondauern</t>
+  </si>
+  <si>
+    <t>SCORE_HEADER</t>
+  </si>
+  <si>
+    <t>Du hast den Seashore-Test für musikalische Begabung beendet.</t>
+  </si>
+  <si>
+    <t>You have successfully completed the Seashore Measures of Musical Talents.</t>
+  </si>
+  <si>
+    <t>Your scores</t>
+  </si>
+  <si>
+    <t>Was the second tone longer or short?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -312,6 +563,13 @@
       <color theme="1"/>
       <name val="Calibri (Textkörper)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -339,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -367,6 +625,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,7 +685,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -747,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -779,10 +1040,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E2" s="7"/>
     </row>
@@ -791,10 +1052,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -803,10 +1064,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="6"/>
     </row>
@@ -815,10 +1076,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -827,97 +1088,96 @@
         <v>7</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>61</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>66</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>20</v>
@@ -925,10 +1185,11 @@
       <c r="C14" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>21</v>
@@ -936,53 +1197,52 @@
       <c r="C15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>30</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>42</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>45</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="5"/>
+        <v>164</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="11" t="s">
@@ -992,15 +1252,15 @@
         <v>23</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="11" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>33</v>
@@ -1011,89 +1271,474 @@
         <v>34</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>38</v>
+    </row>
+    <row r="23" spans="1:5" ht="75">
+      <c r="A23" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="75">
-      <c r="A24" s="13" t="s">
-        <v>47</v>
+      <c r="A24" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>76</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="75">
       <c r="A25" s="11" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="2"/>
+        <v>109</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="75">
       <c r="A26" s="11" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="107.1" customHeight="1">
+      <c r="A27" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" ht="174" customHeight="1">
+      <c r="A28" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="75">
-      <c r="A27" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="107.1" customHeight="1">
-      <c r="A28" s="11" t="s">
+      <c r="B28" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" ht="174" customHeight="1">
-      <c r="A29" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>73</v>
+      <c r="C57" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B64" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data_raw/SMT_dict.xlsx
+++ b/data_raw/SMT_dict.xlsx
@@ -8,29 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\packages\SMT\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E564971F-E7C0-4544-9986-854486C55A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BF301E-6389-44E6-B6D9-B072BDA8AE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="EDT" sheetId="1" r:id="rId1"/>
+    <sheet name="SMT" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="165">
   <si>
     <t>key</t>
   </si>
   <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>EN</t>
-  </si>
-  <si>
     <t>WELCOME</t>
   </si>
   <si>
@@ -241,9 +235,6 @@
     <t>In diesem Teil geht es um die Merkfähigkeit für Tonfolgen. Es werden kurz hintereinander zwei Tonfolgen gespielt. Es soll festgestellt werden, welcher der drei Töne geändert wurde. Die Markierung soll dementsprechend gesetzt werden. Es muss immer eine Markierung gesetzt werden. Im Zweifel kann geraten werden.</t>
   </si>
   <si>
-    <t>Frage {{num_question}} out of {{test_length}}.</t>
-  </si>
-  <si>
     <t>PITCH_INTRO</t>
   </si>
   <si>
@@ -518,13 +509,19 @@
   </si>
   <si>
     <t>Was the second tone longer or short?</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>en</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -563,13 +560,6 @@
       <color theme="1"/>
       <name val="Calibri (Textkörper)"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -597,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -625,9 +615,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1008,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1028,354 +1015,354 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>1</v>
+        <v>163</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>161</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="75">
       <c r="A23" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="75">
       <c r="A24" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="75">
       <c r="A25" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="75">
       <c r="A26" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="107.1" customHeight="1">
       <c r="A27" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="174" customHeight="1">
       <c r="A28" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>24</v>
+      <c r="A29" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1383,65 +1370,65 @@
         <v>82</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B37" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1460,7 +1447,7 @@
         <v>99</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>101</v>
@@ -1468,277 +1455,266 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="11" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="C42" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B51" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>133</v>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B56">
-        <v>5</v>
-      </c>
-      <c r="C56">
-        <v>5</v>
+        <v>141</v>
+      </c>
+      <c r="B56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="C60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C61" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="11" t="s">
-        <v>149</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" t="s">
         <v>156</v>
-      </c>
-      <c r="C62" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="11" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="B63" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C63" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B64" t="s">
-        <v>158</v>
-      </c>
-      <c r="C64" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data_raw/SMT_dict.xlsx
+++ b/data_raw/SMT_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\packages\SMT\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BF301E-6389-44E6-B6D9-B072BDA8AE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90964D9-416C-46E7-992E-6123A3FC9F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="171">
   <si>
     <t>key</t>
   </si>
@@ -515,6 +515,24 @@
   </si>
   <si>
     <t>en</t>
+  </si>
+  <si>
+    <t>TEST_SELECTION</t>
+  </si>
+  <si>
+    <t>Bitte wähle die Aufgabengruppen und die gewünschte Fragenanzahl (Tonhöhe ist immer dabei).</t>
+  </si>
+  <si>
+    <t>Please select task group and item numbers (PITCH is always included)</t>
+  </si>
+  <si>
+    <t>SCORE_HEADER_SINGLE</t>
+  </si>
+  <si>
+    <t>Ergebnis in der  Aufgabengruppe '{{task_group}}': {{result}}</t>
+  </si>
+  <si>
+    <t>Your score in the  task group '{{task_group}}': {{result}}</t>
   </si>
 </sst>
 </file>
@@ -995,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1222,499 +1240,522 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>161</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="11" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>28</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="11" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B23" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="75">
-      <c r="A23" s="13" t="s">
+    <row r="24" spans="1:5" ht="75">
+      <c r="A24" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B24" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="75">
-      <c r="A24" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="75">
       <c r="A25" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>106</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="75">
       <c r="A26" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="75">
+      <c r="A27" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B27" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="107.1" customHeight="1">
-      <c r="A27" s="11" t="s">
+    <row r="28" spans="1:5" ht="107.1" customHeight="1">
+      <c r="A28" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B28" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" ht="174" customHeight="1">
-      <c r="A28" s="11" t="s">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" ht="174" customHeight="1">
+      <c r="A29" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B29" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>162</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="11" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
+        <v>128</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B56" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56" t="s">
-        <v>147</v>
+        <v>139</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B60" t="s">
-        <v>157</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B61" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="11" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="B62" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C62" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="11" t="s">
-        <v>154</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
         <v>155</v>
       </c>
       <c r="C63" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/data_raw/SMT_dict.xlsx
+++ b/data_raw/SMT_dict.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\packages\SMT\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90964D9-416C-46E7-992E-6123A3FC9F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8745D142-ACAD-4F63-8068-2C3C877E9513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,9 +349,6 @@
     <t>Was the second tone higher or lower in pitch?</t>
   </si>
   <si>
-    <t>War der zweite Ton lauter oder leider?</t>
-  </si>
-  <si>
     <t>Was the second tone stronger or weaker?</t>
   </si>
   <si>
@@ -533,6 +530,9 @@
   </si>
   <si>
     <t>Your score in the  task group '{{task_group}}': {{result}}</t>
+  </si>
+  <si>
+    <t>War der zweite Ton lauter oder leiser?</t>
   </si>
 </sst>
 </file>
@@ -690,7 +690,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1015,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1033,10 +1033,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>164</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1211,7 +1211,7 @@
         <v>38</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1231,7 +1231,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>39</v>
@@ -1240,25 +1240,25 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>78</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1411,10 +1411,10 @@
         <v>80</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1422,10 +1422,10 @@
         <v>81</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1496,51 +1496,51 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>89</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>92</v>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>89</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>92</v>
@@ -1584,29 +1584,29 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B56">
         <v>5</v>
@@ -1661,68 +1661,68 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B57" t="s">
         <v>49</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B58" t="s">
         <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B59" t="s">
         <v>53</v>
       </c>
       <c r="C59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B60" t="s">
         <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B62" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1730,32 +1730,32 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" t="s">
         <v>155</v>
-      </c>
-      <c r="C63" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" t="s">
         <v>154</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>155</v>
-      </c>
-      <c r="C64" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B65" t="s">
         <v>165</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>166</v>
-      </c>
-      <c r="C65" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
